--- a/docs/CommNode_Status.xlsx
+++ b/docs/CommNode_Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Task Name</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Write the CN heartbeat server and client</t>
   </si>
   <si>
-    <t>CNs should be able to send a heartbeat signal on a fixed interval. They should also be able to respond to heartbeats from other CNs by setting up a TCP socket.</t>
-  </si>
-  <si>
     <t>Create and parse a configuration file</t>
   </si>
   <si>
@@ -99,13 +96,58 @@
     <t>Using HTML, CSS, and JS (jQuery) write a web page that will be served by python. At a minimum, this page should show a dropdown with an entry for each CN on the machine and a table with a row for each neighbor of said machine with 4 columns. These columns should be: ID, latency, bandwidth, and the fourth should contain a dropdown with three choices (start, stop, and configure) plus a submit button.</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Unit tests will be written and run throughout the development process, but a comprehensive integration test should be performed at the end of the project.</t>
-  </si>
-  <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Actual Time</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>The requirements are laid out pretty plainly. It took around 15-20 minutes to write descriptions for everything.</t>
+  </si>
+  <si>
+    <t>Again, still rusty at C/C++ especially when it comes to Linux sockets</t>
+  </si>
+  <si>
+    <t>Write the TCP server and client</t>
+  </si>
+  <si>
+    <t>CNs should be able to send a heartbeat signal on a fixed interval. They should also be able to respond to heartbeats from other CNs.</t>
+  </si>
+  <si>
+    <t>CNs should be able to set up a TCP socket to any neighbor they receive a heartbeat from. They should also listen for incoming TCP connection requests.</t>
+  </si>
+  <si>
+    <t>This wasn't very difficult to set up initially, but I discovered some issues with running multiple CNs locally. This time includes updating the design document and adding master/slave to the architecture.</t>
+  </si>
+  <si>
+    <t>This took me less time than expected. I'm pretty familiar with all of the technologies involved, and I've written this nearly identical application a few times (most recently on a Minecraft server) though I've never written it in C++.</t>
+  </si>
+  <si>
+    <t>I'd say it took about 20 minutes to make the diagram and another 20 to write the document.</t>
+  </si>
+  <si>
+    <t>I already had gcc, cmake, and boost installed. Most of my time with this was spent writing build scripts and setting up a git repo.</t>
+  </si>
+  <si>
+    <t>This is extremely easy to do in boost. It doesn't do anything but let you specify the heartbeat interval and log file name yet, but it's easily extensible (though I'd probably write a custom struct/class for it if it got more complicated.</t>
+  </si>
+  <si>
+    <t>I'm pretty rusty in C++, and this is the part of the project I'm most uncomfortable with. Hopefully future tasks will go more swimmingly.</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Run unit tests if available and perform a full integration test. This should test multiple local and remote machines, preferably on a mix of VMs and hardware.</t>
+  </si>
+  <si>
+    <t>This is a stretch goal</t>
+  </si>
+  <si>
+    <t>This is a stretch goal. Testing is important, but I would normally allocate more resources to it than the constraints of this project allowed.</t>
   </si>
 </sst>
 </file>
@@ -155,7 +197,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +207,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -193,12 +241,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -233,10 +285,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -566,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -578,14 +643,16 @@
     <col min="2" max="2" width="7.83203125" customWidth="1"/>
     <col min="3" max="3" width="39.83203125" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -593,10 +660,16 @@
       <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="32" customHeight="1">
+      <c r="E1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="75">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="2" t="s">
@@ -605,157 +678,229 @@
       <c r="D2" s="5">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="45">
+      <c r="E2" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="32" customHeight="1">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="32" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45">
       <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="45">
+      <c r="E5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="75">
       <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D6" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="60">
+      <c r="E6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="60">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60">
+      <c r="A8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="90">
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="75">
       <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="90">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="D10" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="90">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="90">
-      <c r="A10" s="2" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="150">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="45">
       <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="150">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="60">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D13" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="60">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>11.6</v>
+      </c>
+      <c r="E15">
         <f ca="1">SUM(INDIRECT(ADDRESS(1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -888,10 +1033,10 @@
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1"/>
@@ -916,6 +1061,12 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/CommNode_Status.xlsx
+++ b/docs/CommNode_Status.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Task Name</t>
   </si>
@@ -144,10 +144,13 @@
     <t>Run unit tests if available and perform a full integration test. This should test multiple local and remote machines, preferably on a mix of VMs and hardware.</t>
   </si>
   <si>
-    <t>This is a stretch goal</t>
-  </si>
-  <si>
     <t>This is a stretch goal. Testing is important, but I would normally allocate more resources to it than the constraints of this project allowed.</t>
+  </si>
+  <si>
+    <t>All of the web server code was a stretch goal for the prototype.</t>
+  </si>
+  <si>
+    <t>Went over-budget on time, unfortunately.</t>
   </si>
 </sst>
 </file>
@@ -241,7 +244,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -249,8 +252,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -294,14 +299,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -633,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -787,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>29</v>
@@ -805,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>33</v>
@@ -823,7 +831,9 @@
         <v>1.5</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="90">
       <c r="A11" s="2" t="s">
@@ -837,7 +847,9 @@
         <v>1</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="45">
       <c r="A12" s="2" t="s">
@@ -851,7 +863,9 @@
         <v>1</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="150">
       <c r="A13" s="2" t="s">
@@ -865,8 +879,8 @@
         <v>1</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>41</v>
+      <c r="F13" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="60">
@@ -882,7 +896,7 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -895,9 +909,12 @@
         <f ca="1">SUM(INDIRECT(ADDRESS(1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
         <v>11.6</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="15">
         <f ca="1">SUM(INDIRECT(ADDRESS(1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6">
